--- a/code/condition_files/ConditionsANTIEM.xlsx
+++ b/code/condition_files/ConditionsANTIEM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-108158338286165837329/Mi unidad/Memory_Attention_Javi_Fer/ANTI PsychoPy v.1.85.2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierortiz/github_repos/antiem/code/condition_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A0CC04-D426-F645-97C4-50B432E0C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4326A151-6112-C445-A0D0-7540498AE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original coordinates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2502" uniqueCount="51">
   <si>
     <t>Flankers</t>
   </si>
@@ -174,15 +175,36 @@
   <si>
     <t>Block</t>
   </si>
+  <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>-0.0977</t>
+  </si>
+  <si>
+    <t>-0.1954</t>
+  </si>
+  <si>
+    <t>0.0977</t>
+  </si>
+  <si>
+    <t>0.1954</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,7 +569,7 @@
       <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -634,25 +656,29 @@
         <v>34</v>
       </c>
       <c r="M2" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C2*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E2*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G2*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I2*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>34</v>
@@ -717,25 +743,29 @@
         <v>34</v>
       </c>
       <c r="M3" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C3*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E3*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G3*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I3*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>34</v>
@@ -800,25 +830,29 @@
         <v>34</v>
       </c>
       <c r="M4" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C4*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O4" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E4*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G4*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S4" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I4*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>34</v>
@@ -883,25 +917,29 @@
         <v>34</v>
       </c>
       <c r="M5" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C5*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E5*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G5*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S5" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I5*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>34</v>
@@ -962,29 +1000,33 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M6" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C6*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E6*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G6*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I6*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>33</v>
@@ -1045,29 +1087,33 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M7" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C7*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E7*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G7*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I7*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>33</v>
@@ -1128,29 +1174,33 @@
       <c r="K8" s="1">
         <v>0</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C8*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E8*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G8*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I8*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>33</v>
@@ -1211,29 +1261,33 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M9" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C9*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E9*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G9*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I9*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>33</v>
@@ -1298,25 +1352,29 @@
         <v>34</v>
       </c>
       <c r="M10" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C10*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O10" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E10*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G10*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S10" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I10*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>34</v>
@@ -1381,25 +1439,29 @@
         <v>34</v>
       </c>
       <c r="M11" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C11*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E11*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G11*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S11" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I11*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>34</v>
@@ -1464,25 +1526,29 @@
         <v>34</v>
       </c>
       <c r="M12" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C12*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O12" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E12*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G12*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I12*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>34</v>
@@ -1547,25 +1613,29 @@
         <v>34</v>
       </c>
       <c r="M13" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C13*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O13" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E13*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G13*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S13" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I13*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>34</v>
@@ -1626,29 +1696,33 @@
       <c r="K14" s="1">
         <v>0</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C14*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O14" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E14*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G14*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I14*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>33</v>
@@ -1709,29 +1783,33 @@
       <c r="K15" s="1">
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M15" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C15*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O15" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E15*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G15*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I15*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>33</v>
@@ -1792,29 +1870,33 @@
       <c r="K16" s="1">
         <v>0</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M16" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C16*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E16*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G16*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S16" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I16*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>33</v>
@@ -1875,29 +1957,33 @@
       <c r="K17" s="1">
         <v>0</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C17*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E17*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G17*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I17*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>33</v>
@@ -1958,29 +2044,33 @@
       <c r="K18" s="1">
         <v>0</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M18" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C18*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E18*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G18*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I18*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>33</v>
@@ -2041,29 +2131,33 @@
       <c r="K19" s="1">
         <v>0</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M19" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C19*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E19*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G19*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I19*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>33</v>
@@ -2124,29 +2218,33 @@
       <c r="K20" s="1">
         <v>0</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M20" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C20*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O20" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E20*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G20*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I20*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>33</v>
@@ -2207,29 +2305,33 @@
       <c r="K21" s="1">
         <v>0</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M21" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C21*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E21*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G21*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I21*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>33</v>
@@ -2294,25 +2396,29 @@
         <v>34</v>
       </c>
       <c r="M22" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C22*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E22*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G22*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I22*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>34</v>
@@ -2377,25 +2483,29 @@
         <v>34</v>
       </c>
       <c r="M23" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C23*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E23*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G23*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S23" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I23*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>34</v>
@@ -2460,25 +2570,29 @@
         <v>34</v>
       </c>
       <c r="M24" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C24*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O24" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E24*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G24*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S24" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I24*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>34</v>
@@ -2543,25 +2657,29 @@
         <v>34</v>
       </c>
       <c r="M25" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C25*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O25" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E25*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G25*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S25" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I25*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>34</v>
@@ -2626,25 +2744,29 @@
         <v>34</v>
       </c>
       <c r="M26" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C26*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O26" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E26*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G26*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S26" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I26*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>34</v>
@@ -2709,25 +2831,29 @@
         <v>34</v>
       </c>
       <c r="M27" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C27*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O27" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E27*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G27*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S27" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I27*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>34</v>
@@ -2792,25 +2918,29 @@
         <v>34</v>
       </c>
       <c r="M28" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C28*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O28" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E28*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G28*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S28" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I28*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>34</v>
@@ -2875,25 +3005,29 @@
         <v>34</v>
       </c>
       <c r="M29" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C29*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O29" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E29*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G29*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S29" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I29*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>34</v>
@@ -2954,29 +3088,33 @@
       <c r="K30" s="1">
         <v>0</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M30" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C30*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O30" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E30*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G30*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S30" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I30*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>33</v>
@@ -3037,29 +3175,33 @@
       <c r="K31" s="1">
         <v>0</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M31" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C31*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E31*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G31*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I31*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>33</v>
@@ -3120,29 +3262,33 @@
       <c r="K32" s="1">
         <v>0</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M32" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C32*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O32" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E32*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G32*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S32" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I32*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>33</v>
@@ -3203,29 +3349,33 @@
       <c r="K33" s="1">
         <v>0</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M33" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C33*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E33*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G33*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S33" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I33*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>33</v>
@@ -3290,25 +3440,29 @@
         <v>34</v>
       </c>
       <c r="M34" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C34*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O34" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E34*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q34" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G34*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S34" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I34*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>34</v>
@@ -3373,25 +3527,29 @@
         <v>34</v>
       </c>
       <c r="M35" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C35*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O35" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E35*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q35" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G35*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S35" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I35*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>34</v>
@@ -3456,25 +3614,29 @@
         <v>34</v>
       </c>
       <c r="M36" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C36*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O36" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E36*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q36" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G36*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I36*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>34</v>
@@ -3539,25 +3701,29 @@
         <v>34</v>
       </c>
       <c r="M37" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C37*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O37" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E37*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q37" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G37*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S37" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I37*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>34</v>
@@ -3618,29 +3784,33 @@
       <c r="K38" s="1">
         <v>0</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M38" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C38*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O38" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E38*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G38*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S38" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I38*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>33</v>
@@ -3701,29 +3871,33 @@
       <c r="K39" s="1">
         <v>0</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M39" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C39*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O39" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E39*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G39*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S39" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I39*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>33</v>
@@ -3784,29 +3958,33 @@
       <c r="K40" s="1">
         <v>0</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M40" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C40*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E40*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q40" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G40*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I40*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>33</v>
@@ -3867,29 +4045,33 @@
       <c r="K41" s="1">
         <v>0</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M41" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C41*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E41*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q41" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G41*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S41" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I41*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>33</v>
@@ -3950,29 +4132,33 @@
       <c r="K42" s="1">
         <v>0</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M42" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C42*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E42*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G42*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I42*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>33</v>
@@ -4033,29 +4219,33 @@
       <c r="K43" s="1">
         <v>0</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M43" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C43*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E43*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q43" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G43*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S43" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I43*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>33</v>
@@ -4116,29 +4306,33 @@
       <c r="K44" s="1">
         <v>0</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M44" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C44*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O44" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E44*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q44" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G44*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S44" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I44*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>33</v>
@@ -4199,29 +4393,33 @@
       <c r="K45" s="1">
         <v>0</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M45" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C45*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E45*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q45" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G45*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I45*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>33</v>
@@ -4286,25 +4484,29 @@
         <v>34</v>
       </c>
       <c r="M46" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C46*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O46" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E46*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q46" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G46*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S46" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I46*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>34</v>
@@ -4369,25 +4571,29 @@
         <v>34</v>
       </c>
       <c r="M47" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C47*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O47" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E47*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q47" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G47*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S47" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I47*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>34</v>
@@ -4452,25 +4658,29 @@
         <v>34</v>
       </c>
       <c r="M48" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C48*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O48" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E48*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q48" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G48*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S48" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I48*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>34</v>
@@ -4535,25 +4745,29 @@
         <v>34</v>
       </c>
       <c r="M49" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C49*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O49" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E49*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q49" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G49*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S49" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I49*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>34</v>
@@ -4618,25 +4832,29 @@
         <v>34</v>
       </c>
       <c r="M50" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C50*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O50" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E50*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q50" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G50*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S50" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I50*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>34</v>
@@ -4701,25 +4919,29 @@
         <v>34</v>
       </c>
       <c r="M51" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C51*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O51" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E51*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q51" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G51*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S51" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I51*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>34</v>
@@ -4784,25 +5006,29 @@
         <v>34</v>
       </c>
       <c r="M52" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C52*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O52" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E52*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q52" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G52*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S52" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I52*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>34</v>
@@ -4867,25 +5093,29 @@
         <v>34</v>
       </c>
       <c r="M53" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C53*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O53" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E53*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q53" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G53*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S53" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I53*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>34</v>
@@ -4946,29 +5176,33 @@
       <c r="K54" s="1">
         <v>0</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M54" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C54*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E54*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G54*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S54" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I54*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>33</v>
@@ -5029,29 +5263,33 @@
       <c r="K55" s="1">
         <v>0</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M55" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C55*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E55*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G55*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S55" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I55*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>33</v>
@@ -5112,29 +5350,33 @@
       <c r="K56" s="1">
         <v>0</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M56" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C56*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O56" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E56*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q56" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G56*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S56" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I56*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>33</v>
@@ -5195,29 +5437,33 @@
       <c r="K57" s="1">
         <v>0</v>
       </c>
-      <c r="L57" s="4" t="s">
+      <c r="L57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M57" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C57*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O57" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E57*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G57*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S57" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I57*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>33</v>
@@ -5282,25 +5528,29 @@
         <v>34</v>
       </c>
       <c r="M58" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C58*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O58" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E58*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q58" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G58*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S58" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I58*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>34</v>
@@ -5365,25 +5615,29 @@
         <v>34</v>
       </c>
       <c r="M59" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C59*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O59" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E59*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q59" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G59*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S59" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I59*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>34</v>
@@ -5448,25 +5702,29 @@
         <v>34</v>
       </c>
       <c r="M60" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C60*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O60" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E60*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q60" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G60*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S60" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I60*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>34</v>
@@ -5531,25 +5789,29 @@
         <v>34</v>
       </c>
       <c r="M61" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C61*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O61" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E61*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q61" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G61*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S61" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I61*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>34</v>
@@ -5610,29 +5872,33 @@
       <c r="K62" s="1">
         <v>0</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M62" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C62*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O62" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E62*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q62" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G62*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S62" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I62*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>33</v>
@@ -5693,29 +5959,33 @@
       <c r="K63" s="1">
         <v>0</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M63" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C63*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O63" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E63*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q63" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G63*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S63" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I63*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>33</v>
@@ -5776,29 +6046,33 @@
       <c r="K64" s="1">
         <v>0</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M64" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C64*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O64" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E64*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q64" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G64*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S64" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I64*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>33</v>
@@ -5859,29 +6133,33 @@
       <c r="K65" s="1">
         <v>0</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M65" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C65*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O65" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E65*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q65" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G65*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S65" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I65*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>33</v>
@@ -5942,29 +6220,33 @@
       <c r="K66" s="1">
         <v>0</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M66" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C66*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O66" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E66*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q66" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G66*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S66" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I66*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>33</v>
@@ -6025,29 +6307,33 @@
       <c r="K67" s="1">
         <v>0</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M67" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C67*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O67" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E67*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q67" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G67*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S67" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I67*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>33</v>
@@ -6108,29 +6394,33 @@
       <c r="K68" s="1">
         <v>0</v>
       </c>
-      <c r="L68" s="4" t="s">
+      <c r="L68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M68" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C68*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O68" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E68*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q68" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G68*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S68" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I68*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>33</v>
@@ -6191,29 +6481,33 @@
       <c r="K69" s="1">
         <v>0</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M69" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C69*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O69" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E69*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q69" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G69*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S69" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I69*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>33</v>
@@ -6278,25 +6572,29 @@
         <v>34</v>
       </c>
       <c r="M70" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C70*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O70" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E70*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q70" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G70*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S70" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I70*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>34</v>
@@ -6361,25 +6659,29 @@
         <v>34</v>
       </c>
       <c r="M71" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C71*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O71" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E71*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q71" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G71*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S71" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I71*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>34</v>
@@ -6444,25 +6746,29 @@
         <v>34</v>
       </c>
       <c r="M72" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C72*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O72" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E72*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q72" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G72*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S72" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I72*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>34</v>
@@ -6527,25 +6833,29 @@
         <v>34</v>
       </c>
       <c r="M73" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C73*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O73" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E73*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q73" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G73*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S73" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I73*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>34</v>
@@ -6610,25 +6920,29 @@
         <v>34</v>
       </c>
       <c r="M74" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C74*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O74" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E74*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q74" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G74*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S74" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I74*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>34</v>
@@ -6693,25 +7007,29 @@
         <v>34</v>
       </c>
       <c r="M75" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C75*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O75" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E75*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q75" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G75*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S75" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I75*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>34</v>
@@ -6776,25 +7094,29 @@
         <v>34</v>
       </c>
       <c r="M76" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C76*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O76" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E76*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q76" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G76*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S76" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I76*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>34</v>
@@ -6859,25 +7181,29 @@
         <v>34</v>
       </c>
       <c r="M77" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C77*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O77" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E77*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q77" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G77*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S77" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I77*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>34</v>
@@ -6938,29 +7264,33 @@
       <c r="K78" s="1">
         <v>0</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M78" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C78*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O78" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E78*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q78" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G78*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S78" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I78*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>33</v>
@@ -7021,29 +7351,33 @@
       <c r="K79" s="1">
         <v>0</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="L79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M79" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C79*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O79" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E79*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q79" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G79*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S79" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I79*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>33</v>
@@ -7104,29 +7438,33 @@
       <c r="K80" s="1">
         <v>0</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M80" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C80*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O80" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E80*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q80" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G80*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S80" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I80*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>33</v>
@@ -7187,29 +7525,33 @@
       <c r="K81" s="1">
         <v>0</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M81" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C81*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O81" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E81*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q81" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G81*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S81" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I81*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>33</v>
@@ -7274,25 +7616,29 @@
         <v>34</v>
       </c>
       <c r="M82" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C82*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O82" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E82*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q82" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G82*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S82" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I82*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>34</v>
@@ -7357,25 +7703,29 @@
         <v>34</v>
       </c>
       <c r="M83" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C83*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O83" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E83*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q83" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G83*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S83" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I83*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>34</v>
@@ -7440,25 +7790,29 @@
         <v>34</v>
       </c>
       <c r="M84" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C84*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O84" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E84*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q84" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G84*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S84" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I84*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>34</v>
@@ -7523,25 +7877,29 @@
         <v>34</v>
       </c>
       <c r="M85" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C85*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O85" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E85*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q85" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G85*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S85" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I85*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>34</v>
@@ -7602,29 +7960,33 @@
       <c r="K86" s="1">
         <v>0</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M86" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C86*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O86" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E86*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q86" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G86*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S86" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I86*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>33</v>
@@ -7685,29 +8047,33 @@
       <c r="K87" s="1">
         <v>0</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M87" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C87*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O87" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E87*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q87" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G87*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S87" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I87*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>33</v>
@@ -7768,29 +8134,33 @@
       <c r="K88" s="1">
         <v>0</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="L88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M88" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C88*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O88" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E88*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q88" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G88*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S88" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I88*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T88" s="3" t="s">
         <v>33</v>
@@ -7851,29 +8221,33 @@
       <c r="K89" s="1">
         <v>0</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="L89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M89" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C89*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O89" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E89*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q89" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G89*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S89" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I89*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>33</v>
@@ -7934,29 +8308,33 @@
       <c r="K90" s="1">
         <v>0</v>
       </c>
-      <c r="L90" s="4" t="s">
+      <c r="L90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M90" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C90*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O90" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E90*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q90" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G90*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S90" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I90*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>33</v>
@@ -8017,29 +8395,33 @@
       <c r="K91" s="1">
         <v>0</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M91" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C91*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O91" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E91*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q91" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G91*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S91" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I91*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>33</v>
@@ -8100,29 +8482,33 @@
       <c r="K92" s="1">
         <v>0</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M92" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C92*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O92" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E92*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q92" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G92*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S92" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I92*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>33</v>
@@ -8183,29 +8569,33 @@
       <c r="K93" s="1">
         <v>0</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="M93" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C93*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O93" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E93*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q93" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G93*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S93" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I93*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T93" s="3" t="s">
         <v>33</v>
@@ -8270,25 +8660,29 @@
         <v>34</v>
       </c>
       <c r="M94" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C94*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O94" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E94*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q94" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G94*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S94" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I94*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>34</v>
@@ -8353,25 +8747,29 @@
         <v>34</v>
       </c>
       <c r="M95" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C95*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O95" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E95*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q95" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G95*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S95" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I95*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>34</v>
@@ -8436,25 +8834,29 @@
         <v>34</v>
       </c>
       <c r="M96" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C96*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O96" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E96*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q96" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G96*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S96" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I96*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>34</v>
@@ -8519,25 +8921,29 @@
         <v>34</v>
       </c>
       <c r="M97" s="3">
-        <v>-0.19539999999999999</v>
+        <f>'Original coordinates'!C97*'Original coordinates'!L$2</f>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O97" s="3">
-        <v>-0.39079999999999998</v>
+        <f>'Original coordinates'!E97*'Original coordinates'!L$2</f>
+        <v>-0.58619999999999994</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q97" s="1">
-        <v>0.19539999999999999</v>
+        <f>'Original coordinates'!G97*'Original coordinates'!L$2</f>
+        <v>0.29309999999999997</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S97" s="1">
-        <v>0.39079999999999998</v>
+        <f>'Original coordinates'!I97*'Original coordinates'!L$2</f>
+        <v>0.58619999999999994</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>34</v>
@@ -8566,350 +8972,3231 @@
     </row>
     <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I98" s="4"/>
-      <c r="M98" s="3"/>
-      <c r="O98" s="3"/>
     </row>
     <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I99" s="4"/>
-      <c r="M99" s="3"/>
-      <c r="O99" s="3"/>
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I100" s="4"/>
-      <c r="M100" s="3"/>
-      <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I101" s="4"/>
-      <c r="M101" s="3"/>
-      <c r="O101" s="3"/>
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I102" s="4"/>
-      <c r="L102" s="4"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="T102" s="3"/>
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="3"/>
-      <c r="R103" s="3"/>
-      <c r="T103" s="3"/>
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
-      <c r="R104" s="3"/>
-      <c r="T104" s="3"/>
     </row>
     <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
-      <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
-      <c r="R105" s="3"/>
-      <c r="T105" s="3"/>
-    </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="M106" s="3"/>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="M107" s="3"/>
-      <c r="O107" s="3"/>
-    </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="M108" s="3"/>
-      <c r="O108" s="3"/>
-    </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="M109" s="3"/>
-      <c r="O109" s="3"/>
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="T110" s="3"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="T111" s="3"/>
     </row>
     <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="I112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="T112" s="3"/>
-    </row>
-    <row r="113" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="3"/>
-      <c r="N113" s="3"/>
-      <c r="O113" s="3"/>
-      <c r="P113" s="3"/>
-      <c r="R113" s="3"/>
-      <c r="T113" s="3"/>
-    </row>
-    <row r="114" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L114" s="4"/>
-      <c r="M114" s="3"/>
-      <c r="N114" s="3"/>
-      <c r="O114" s="3"/>
-      <c r="P114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="T114" s="3"/>
-    </row>
-    <row r="115" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L115" s="4"/>
-      <c r="M115" s="3"/>
-      <c r="N115" s="3"/>
-      <c r="O115" s="3"/>
-      <c r="P115" s="3"/>
-      <c r="R115" s="3"/>
-      <c r="T115" s="3"/>
-    </row>
-    <row r="116" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L116" s="4"/>
-      <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="3"/>
-      <c r="R116" s="3"/>
-      <c r="T116" s="3"/>
-    </row>
-    <row r="117" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L117" s="4"/>
-      <c r="M117" s="3"/>
-      <c r="N117" s="3"/>
-      <c r="O117" s="3"/>
-      <c r="P117" s="3"/>
-      <c r="R117" s="3"/>
-      <c r="T117" s="3"/>
-    </row>
-    <row r="118" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I118" s="4"/>
-      <c r="M118" s="3"/>
-      <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I119" s="4"/>
-      <c r="M119" s="3"/>
-      <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I120" s="4"/>
-      <c r="M120" s="3"/>
-      <c r="O120" s="3"/>
-    </row>
-    <row r="121" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I121" s="4"/>
-      <c r="M121" s="3"/>
-      <c r="O121" s="3"/>
-    </row>
-    <row r="122" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I122" s="4"/>
-      <c r="M122" s="3"/>
-      <c r="O122" s="3"/>
-    </row>
-    <row r="123" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I123" s="4"/>
-      <c r="M123" s="3"/>
-      <c r="O123" s="3"/>
-    </row>
-    <row r="124" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I124" s="4"/>
-      <c r="M124" s="3"/>
-      <c r="O124" s="3"/>
-    </row>
-    <row r="125" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I125" s="4"/>
-      <c r="M125" s="3"/>
-      <c r="O125" s="3"/>
-    </row>
-    <row r="126" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="3"/>
-      <c r="N126" s="3"/>
-      <c r="O126" s="3"/>
-      <c r="P126" s="3"/>
-      <c r="R126" s="3"/>
-      <c r="T126" s="3"/>
-    </row>
-    <row r="127" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="3"/>
-      <c r="N127" s="3"/>
-      <c r="O127" s="3"/>
-      <c r="P127" s="3"/>
-      <c r="R127" s="3"/>
-      <c r="T127" s="3"/>
-    </row>
-    <row r="128" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="3"/>
-      <c r="N128" s="3"/>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
-      <c r="R128" s="3"/>
-      <c r="T128" s="3"/>
-    </row>
-    <row r="129" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="3"/>
-      <c r="N129" s="3"/>
-      <c r="O129" s="3"/>
-      <c r="P129" s="3"/>
-      <c r="R129" s="3"/>
-      <c r="T129" s="3"/>
-    </row>
-    <row r="130" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="M130" s="3"/>
-      <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="M131" s="3"/>
-      <c r="O131" s="3"/>
-    </row>
-    <row r="132" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="M132" s="3"/>
-      <c r="O132" s="3"/>
-    </row>
-    <row r="133" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="M133" s="3"/>
-      <c r="O133" s="3"/>
-    </row>
-    <row r="134" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="O134" s="3"/>
-      <c r="P134" s="3"/>
-      <c r="R134" s="3"/>
-      <c r="T134" s="3"/>
-    </row>
-    <row r="135" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="R135" s="3"/>
-      <c r="T135" s="3"/>
-    </row>
-    <row r="136" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="3"/>
-      <c r="N136" s="3"/>
-      <c r="O136" s="3"/>
-      <c r="P136" s="3"/>
-      <c r="R136" s="3"/>
-      <c r="T136" s="3"/>
-    </row>
-    <row r="137" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="3"/>
-      <c r="N137" s="3"/>
-      <c r="O137" s="3"/>
-      <c r="P137" s="3"/>
-      <c r="R137" s="3"/>
-      <c r="T137" s="3"/>
-    </row>
-    <row r="138" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L138" s="4"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="T138" s="3"/>
-    </row>
-    <row r="139" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L139" s="4"/>
-      <c r="M139" s="3"/>
-      <c r="N139" s="3"/>
-      <c r="O139" s="3"/>
-      <c r="P139" s="3"/>
-      <c r="R139" s="3"/>
-      <c r="T139" s="3"/>
-    </row>
-    <row r="140" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L140" s="4"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="O140" s="3"/>
-      <c r="P140" s="3"/>
-      <c r="R140" s="3"/>
-      <c r="T140" s="3"/>
-    </row>
-    <row r="141" spans="9:20" x14ac:dyDescent="0.2">
-      <c r="L141" s="4"/>
-      <c r="M141" s="3"/>
-      <c r="N141" s="3"/>
-      <c r="O141" s="3"/>
-      <c r="P141" s="3"/>
-      <c r="R141" s="3"/>
-      <c r="T141" s="3"/>
-    </row>
-    <row r="142" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I142" s="4"/>
-      <c r="M142" s="3"/>
-      <c r="O142" s="3"/>
-    </row>
-    <row r="143" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I143" s="4"/>
-      <c r="M143" s="3"/>
-      <c r="O143" s="3"/>
-    </row>
-    <row r="144" spans="9:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I144" s="4"/>
-      <c r="M144" s="3"/>
-      <c r="O144" s="3"/>
-    </row>
-    <row r="145" spans="9:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I145" s="4"/>
-      <c r="M145" s="3"/>
-      <c r="O145" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAF259E-B7FF-304F-9BF9-5CD47FA4A19F}">
+  <dimension ref="A1:L97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>0</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>0</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>0</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>0</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>0</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>0</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>0</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>0</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>0</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>0</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>0</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>0</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>0</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>0</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>0</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>0</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>0</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/code/condition_files/ConditionsANTIEM.xlsx
+++ b/code/condition_files/ConditionsANTIEM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javierortiz/github_repos/antiem/code/condition_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4326A151-6112-C445-A0D0-7540498AE864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD2FAE9-29A3-E14D-B893-57183EA3852E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:AA145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -657,28 +657,28 @@
       </c>
       <c r="M2" s="3">
         <f>'Original coordinates'!C2*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O2" s="3">
         <f>'Original coordinates'!E2*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="1">
         <f>'Original coordinates'!G2*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="1">
         <f>'Original coordinates'!I2*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>34</v>
@@ -744,28 +744,28 @@
       </c>
       <c r="M3" s="3">
         <f>'Original coordinates'!C3*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="3">
         <f>'Original coordinates'!E3*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q3" s="1">
         <f>'Original coordinates'!G3*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S3" s="1">
         <f>'Original coordinates'!I3*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>34</v>
@@ -831,28 +831,28 @@
       </c>
       <c r="M4" s="3">
         <f>'Original coordinates'!C4*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O4" s="3">
         <f>'Original coordinates'!E4*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="1">
         <f>'Original coordinates'!G4*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S4" s="1">
         <f>'Original coordinates'!I4*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>34</v>
@@ -918,28 +918,28 @@
       </c>
       <c r="M5" s="3">
         <f>'Original coordinates'!C5*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O5" s="3">
         <f>'Original coordinates'!E5*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="1">
         <f>'Original coordinates'!G5*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S5" s="1">
         <f>'Original coordinates'!I5*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>34</v>
@@ -1005,28 +1005,28 @@
       </c>
       <c r="M6" s="3">
         <f>'Original coordinates'!C6*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O6" s="3">
         <f>'Original coordinates'!E6*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q6" s="1">
         <f>'Original coordinates'!G6*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S6" s="1">
         <f>'Original coordinates'!I6*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T6" s="3" t="s">
         <v>33</v>
@@ -1092,28 +1092,28 @@
       </c>
       <c r="M7" s="3">
         <f>'Original coordinates'!C7*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O7" s="3">
         <f>'Original coordinates'!E7*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q7" s="1">
         <f>'Original coordinates'!G7*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S7" s="1">
         <f>'Original coordinates'!I7*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>33</v>
@@ -1179,28 +1179,28 @@
       </c>
       <c r="M8" s="3">
         <f>'Original coordinates'!C8*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O8" s="3">
         <f>'Original coordinates'!E8*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1">
         <f>'Original coordinates'!G8*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S8" s="1">
         <f>'Original coordinates'!I8*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>33</v>
@@ -1266,28 +1266,28 @@
       </c>
       <c r="M9" s="3">
         <f>'Original coordinates'!C9*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O9" s="3">
         <f>'Original coordinates'!E9*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q9" s="1">
         <f>'Original coordinates'!G9*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S9" s="1">
         <f>'Original coordinates'!I9*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>33</v>
@@ -1353,28 +1353,28 @@
       </c>
       <c r="M10" s="3">
         <f>'Original coordinates'!C10*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O10" s="3">
         <f>'Original coordinates'!E10*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q10" s="1">
         <f>'Original coordinates'!G10*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S10" s="1">
         <f>'Original coordinates'!I10*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>34</v>
@@ -1440,28 +1440,28 @@
       </c>
       <c r="M11" s="3">
         <f>'Original coordinates'!C11*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O11" s="3">
         <f>'Original coordinates'!E11*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q11" s="1">
         <f>'Original coordinates'!G11*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S11" s="1">
         <f>'Original coordinates'!I11*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>34</v>
@@ -1527,28 +1527,28 @@
       </c>
       <c r="M12" s="3">
         <f>'Original coordinates'!C12*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O12" s="3">
         <f>'Original coordinates'!E12*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q12" s="1">
         <f>'Original coordinates'!G12*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S12" s="1">
         <f>'Original coordinates'!I12*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>34</v>
@@ -1614,28 +1614,28 @@
       </c>
       <c r="M13" s="3">
         <f>'Original coordinates'!C13*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O13" s="3">
         <f>'Original coordinates'!E13*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q13" s="1">
         <f>'Original coordinates'!G13*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S13" s="1">
         <f>'Original coordinates'!I13*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>34</v>
@@ -1701,28 +1701,28 @@
       </c>
       <c r="M14" s="3">
         <f>'Original coordinates'!C14*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O14" s="3">
         <f>'Original coordinates'!E14*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="1">
         <f>'Original coordinates'!G14*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S14" s="1">
         <f>'Original coordinates'!I14*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>33</v>
@@ -1788,28 +1788,28 @@
       </c>
       <c r="M15" s="3">
         <f>'Original coordinates'!C15*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O15" s="3">
         <f>'Original coordinates'!E15*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q15" s="1">
         <f>'Original coordinates'!G15*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S15" s="1">
         <f>'Original coordinates'!I15*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>33</v>
@@ -1875,28 +1875,28 @@
       </c>
       <c r="M16" s="3">
         <f>'Original coordinates'!C16*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="3">
         <f>'Original coordinates'!E16*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q16" s="1">
         <f>'Original coordinates'!G16*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S16" s="1">
         <f>'Original coordinates'!I16*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>33</v>
@@ -1962,28 +1962,28 @@
       </c>
       <c r="M17" s="3">
         <f>'Original coordinates'!C17*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="3">
         <f>'Original coordinates'!E17*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q17" s="1">
         <f>'Original coordinates'!G17*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S17" s="1">
         <f>'Original coordinates'!I17*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>33</v>
@@ -2049,28 +2049,28 @@
       </c>
       <c r="M18" s="3">
         <f>'Original coordinates'!C18*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="3">
         <f>'Original coordinates'!E18*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q18" s="1">
         <f>'Original coordinates'!G18*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S18" s="1">
         <f>'Original coordinates'!I18*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>33</v>
@@ -2136,28 +2136,28 @@
       </c>
       <c r="M19" s="3">
         <f>'Original coordinates'!C19*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="3">
         <f>'Original coordinates'!E19*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q19" s="1">
         <f>'Original coordinates'!G19*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S19" s="1">
         <f>'Original coordinates'!I19*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>33</v>
@@ -2223,28 +2223,28 @@
       </c>
       <c r="M20" s="3">
         <f>'Original coordinates'!C20*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O20" s="3">
         <f>'Original coordinates'!E20*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q20" s="1">
         <f>'Original coordinates'!G20*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S20" s="1">
         <f>'Original coordinates'!I20*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>33</v>
@@ -2310,28 +2310,28 @@
       </c>
       <c r="M21" s="3">
         <f>'Original coordinates'!C21*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O21" s="3">
         <f>'Original coordinates'!E21*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q21" s="1">
         <f>'Original coordinates'!G21*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S21" s="1">
         <f>'Original coordinates'!I21*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>33</v>
@@ -2397,28 +2397,28 @@
       </c>
       <c r="M22" s="3">
         <f>'Original coordinates'!C22*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O22" s="3">
         <f>'Original coordinates'!E22*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q22" s="1">
         <f>'Original coordinates'!G22*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="1">
         <f>'Original coordinates'!I22*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>34</v>
@@ -2484,28 +2484,28 @@
       </c>
       <c r="M23" s="3">
         <f>'Original coordinates'!C23*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O23" s="3">
         <f>'Original coordinates'!E23*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q23" s="1">
         <f>'Original coordinates'!G23*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S23" s="1">
         <f>'Original coordinates'!I23*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>34</v>
@@ -2571,28 +2571,28 @@
       </c>
       <c r="M24" s="3">
         <f>'Original coordinates'!C24*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O24" s="3">
         <f>'Original coordinates'!E24*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q24" s="1">
         <f>'Original coordinates'!G24*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S24" s="1">
         <f>'Original coordinates'!I24*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>34</v>
@@ -2658,28 +2658,28 @@
       </c>
       <c r="M25" s="3">
         <f>'Original coordinates'!C25*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O25" s="3">
         <f>'Original coordinates'!E25*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q25" s="1">
         <f>'Original coordinates'!G25*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S25" s="1">
         <f>'Original coordinates'!I25*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>34</v>
@@ -2745,28 +2745,28 @@
       </c>
       <c r="M26" s="3">
         <f>'Original coordinates'!C26*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O26" s="3">
         <f>'Original coordinates'!E26*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q26" s="1">
         <f>'Original coordinates'!G26*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S26" s="1">
         <f>'Original coordinates'!I26*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>34</v>
@@ -2832,28 +2832,28 @@
       </c>
       <c r="M27" s="3">
         <f>'Original coordinates'!C27*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O27" s="3">
         <f>'Original coordinates'!E27*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q27" s="1">
         <f>'Original coordinates'!G27*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S27" s="1">
         <f>'Original coordinates'!I27*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>34</v>
@@ -2919,28 +2919,28 @@
       </c>
       <c r="M28" s="3">
         <f>'Original coordinates'!C28*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O28" s="3">
         <f>'Original coordinates'!E28*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="1">
         <f>'Original coordinates'!G28*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S28" s="1">
         <f>'Original coordinates'!I28*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>34</v>
@@ -3006,28 +3006,28 @@
       </c>
       <c r="M29" s="3">
         <f>'Original coordinates'!C29*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O29" s="3">
         <f>'Original coordinates'!E29*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q29" s="1">
         <f>'Original coordinates'!G29*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S29" s="1">
         <f>'Original coordinates'!I29*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>34</v>
@@ -3093,28 +3093,28 @@
       </c>
       <c r="M30" s="3">
         <f>'Original coordinates'!C30*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O30" s="3">
         <f>'Original coordinates'!E30*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q30" s="1">
         <f>'Original coordinates'!G30*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S30" s="1">
         <f>'Original coordinates'!I30*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T30" s="3" t="s">
         <v>33</v>
@@ -3180,28 +3180,28 @@
       </c>
       <c r="M31" s="3">
         <f>'Original coordinates'!C31*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O31" s="3">
         <f>'Original coordinates'!E31*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q31" s="1">
         <f>'Original coordinates'!G31*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S31" s="1">
         <f>'Original coordinates'!I31*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>33</v>
@@ -3267,28 +3267,28 @@
       </c>
       <c r="M32" s="3">
         <f>'Original coordinates'!C32*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O32" s="3">
         <f>'Original coordinates'!E32*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q32" s="1">
         <f>'Original coordinates'!G32*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S32" s="1">
         <f>'Original coordinates'!I32*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>33</v>
@@ -3354,28 +3354,28 @@
       </c>
       <c r="M33" s="3">
         <f>'Original coordinates'!C33*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O33" s="3">
         <f>'Original coordinates'!E33*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q33" s="1">
         <f>'Original coordinates'!G33*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S33" s="1">
         <f>'Original coordinates'!I33*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>33</v>
@@ -3441,28 +3441,28 @@
       </c>
       <c r="M34" s="3">
         <f>'Original coordinates'!C34*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O34" s="3">
         <f>'Original coordinates'!E34*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q34" s="1">
         <f>'Original coordinates'!G34*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S34" s="1">
         <f>'Original coordinates'!I34*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>34</v>
@@ -3528,28 +3528,28 @@
       </c>
       <c r="M35" s="3">
         <f>'Original coordinates'!C35*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O35" s="3">
         <f>'Original coordinates'!E35*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q35" s="1">
         <f>'Original coordinates'!G35*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S35" s="1">
         <f>'Original coordinates'!I35*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>34</v>
@@ -3615,28 +3615,28 @@
       </c>
       <c r="M36" s="3">
         <f>'Original coordinates'!C36*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O36" s="3">
         <f>'Original coordinates'!E36*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q36" s="1">
         <f>'Original coordinates'!G36*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="1">
         <f>'Original coordinates'!I36*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>34</v>
@@ -3702,28 +3702,28 @@
       </c>
       <c r="M37" s="3">
         <f>'Original coordinates'!C37*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O37" s="3">
         <f>'Original coordinates'!E37*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q37" s="1">
         <f>'Original coordinates'!G37*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S37" s="1">
         <f>'Original coordinates'!I37*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>34</v>
@@ -3789,28 +3789,28 @@
       </c>
       <c r="M38" s="3">
         <f>'Original coordinates'!C38*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O38" s="3">
         <f>'Original coordinates'!E38*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q38" s="1">
         <f>'Original coordinates'!G38*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S38" s="1">
         <f>'Original coordinates'!I38*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T38" s="3" t="s">
         <v>33</v>
@@ -3876,28 +3876,28 @@
       </c>
       <c r="M39" s="3">
         <f>'Original coordinates'!C39*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O39" s="3">
         <f>'Original coordinates'!E39*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q39" s="1">
         <f>'Original coordinates'!G39*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S39" s="1">
         <f>'Original coordinates'!I39*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T39" s="3" t="s">
         <v>33</v>
@@ -3963,28 +3963,28 @@
       </c>
       <c r="M40" s="3">
         <f>'Original coordinates'!C40*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="3">
         <f>'Original coordinates'!E40*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q40" s="1">
         <f>'Original coordinates'!G40*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S40" s="1">
         <f>'Original coordinates'!I40*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T40" s="3" t="s">
         <v>33</v>
@@ -4050,28 +4050,28 @@
       </c>
       <c r="M41" s="3">
         <f>'Original coordinates'!C41*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O41" s="3">
         <f>'Original coordinates'!E41*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q41" s="1">
         <f>'Original coordinates'!G41*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S41" s="1">
         <f>'Original coordinates'!I41*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T41" s="3" t="s">
         <v>33</v>
@@ -4137,28 +4137,28 @@
       </c>
       <c r="M42" s="3">
         <f>'Original coordinates'!C42*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O42" s="3">
         <f>'Original coordinates'!E42*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q42" s="1">
         <f>'Original coordinates'!G42*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S42" s="1">
         <f>'Original coordinates'!I42*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>33</v>
@@ -4224,28 +4224,28 @@
       </c>
       <c r="M43" s="3">
         <f>'Original coordinates'!C43*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O43" s="3">
         <f>'Original coordinates'!E43*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q43" s="1">
         <f>'Original coordinates'!G43*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S43" s="1">
         <f>'Original coordinates'!I43*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>33</v>
@@ -4311,28 +4311,28 @@
       </c>
       <c r="M44" s="3">
         <f>'Original coordinates'!C44*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O44" s="3">
         <f>'Original coordinates'!E44*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q44" s="1">
         <f>'Original coordinates'!G44*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S44" s="1">
         <f>'Original coordinates'!I44*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>33</v>
@@ -4398,28 +4398,28 @@
       </c>
       <c r="M45" s="3">
         <f>'Original coordinates'!C45*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O45" s="3">
         <f>'Original coordinates'!E45*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q45" s="1">
         <f>'Original coordinates'!G45*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S45" s="1">
         <f>'Original coordinates'!I45*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>33</v>
@@ -4485,28 +4485,28 @@
       </c>
       <c r="M46" s="3">
         <f>'Original coordinates'!C46*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O46" s="3">
         <f>'Original coordinates'!E46*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q46" s="1">
         <f>'Original coordinates'!G46*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S46" s="1">
         <f>'Original coordinates'!I46*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>34</v>
@@ -4572,28 +4572,28 @@
       </c>
       <c r="M47" s="3">
         <f>'Original coordinates'!C47*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O47" s="3">
         <f>'Original coordinates'!E47*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q47" s="1">
         <f>'Original coordinates'!G47*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S47" s="1">
         <f>'Original coordinates'!I47*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>34</v>
@@ -4659,28 +4659,28 @@
       </c>
       <c r="M48" s="3">
         <f>'Original coordinates'!C48*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O48" s="3">
         <f>'Original coordinates'!E48*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q48" s="1">
         <f>'Original coordinates'!G48*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S48" s="1">
         <f>'Original coordinates'!I48*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>34</v>
@@ -4746,28 +4746,28 @@
       </c>
       <c r="M49" s="3">
         <f>'Original coordinates'!C49*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O49" s="3">
         <f>'Original coordinates'!E49*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q49" s="1">
         <f>'Original coordinates'!G49*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S49" s="1">
         <f>'Original coordinates'!I49*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>34</v>
@@ -4833,28 +4833,28 @@
       </c>
       <c r="M50" s="3">
         <f>'Original coordinates'!C50*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O50" s="3">
         <f>'Original coordinates'!E50*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q50" s="1">
         <f>'Original coordinates'!G50*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S50" s="1">
         <f>'Original coordinates'!I50*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>34</v>
@@ -4920,28 +4920,28 @@
       </c>
       <c r="M51" s="3">
         <f>'Original coordinates'!C51*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O51" s="3">
         <f>'Original coordinates'!E51*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q51" s="1">
         <f>'Original coordinates'!G51*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S51" s="1">
         <f>'Original coordinates'!I51*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>34</v>
@@ -5007,28 +5007,28 @@
       </c>
       <c r="M52" s="3">
         <f>'Original coordinates'!C52*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O52" s="3">
         <f>'Original coordinates'!E52*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q52" s="1">
         <f>'Original coordinates'!G52*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S52" s="1">
         <f>'Original coordinates'!I52*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>34</v>
@@ -5094,28 +5094,28 @@
       </c>
       <c r="M53" s="3">
         <f>'Original coordinates'!C53*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O53" s="3">
         <f>'Original coordinates'!E53*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q53" s="1">
         <f>'Original coordinates'!G53*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S53" s="1">
         <f>'Original coordinates'!I53*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>34</v>
@@ -5181,28 +5181,28 @@
       </c>
       <c r="M54" s="3">
         <f>'Original coordinates'!C54*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O54" s="3">
         <f>'Original coordinates'!E54*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q54" s="1">
         <f>'Original coordinates'!G54*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S54" s="1">
         <f>'Original coordinates'!I54*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>33</v>
@@ -5268,28 +5268,28 @@
       </c>
       <c r="M55" s="3">
         <f>'Original coordinates'!C55*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O55" s="3">
         <f>'Original coordinates'!E55*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q55" s="1">
         <f>'Original coordinates'!G55*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S55" s="1">
         <f>'Original coordinates'!I55*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T55" s="3" t="s">
         <v>33</v>
@@ -5355,28 +5355,28 @@
       </c>
       <c r="M56" s="3">
         <f>'Original coordinates'!C56*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O56" s="3">
         <f>'Original coordinates'!E56*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q56" s="1">
         <f>'Original coordinates'!G56*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S56" s="1">
         <f>'Original coordinates'!I56*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>33</v>
@@ -5442,28 +5442,28 @@
       </c>
       <c r="M57" s="3">
         <f>'Original coordinates'!C57*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O57" s="3">
         <f>'Original coordinates'!E57*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q57" s="1">
         <f>'Original coordinates'!G57*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S57" s="1">
         <f>'Original coordinates'!I57*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>33</v>
@@ -5529,28 +5529,28 @@
       </c>
       <c r="M58" s="3">
         <f>'Original coordinates'!C58*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O58" s="3">
         <f>'Original coordinates'!E58*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q58" s="1">
         <f>'Original coordinates'!G58*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S58" s="1">
         <f>'Original coordinates'!I58*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>34</v>
@@ -5616,28 +5616,28 @@
       </c>
       <c r="M59" s="3">
         <f>'Original coordinates'!C59*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O59" s="3">
         <f>'Original coordinates'!E59*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q59" s="1">
         <f>'Original coordinates'!G59*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S59" s="1">
         <f>'Original coordinates'!I59*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>34</v>
@@ -5703,28 +5703,28 @@
       </c>
       <c r="M60" s="3">
         <f>'Original coordinates'!C60*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O60" s="3">
         <f>'Original coordinates'!E60*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q60" s="1">
         <f>'Original coordinates'!G60*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S60" s="1">
         <f>'Original coordinates'!I60*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>34</v>
@@ -5790,28 +5790,28 @@
       </c>
       <c r="M61" s="3">
         <f>'Original coordinates'!C61*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O61" s="3">
         <f>'Original coordinates'!E61*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q61" s="1">
         <f>'Original coordinates'!G61*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S61" s="1">
         <f>'Original coordinates'!I61*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>34</v>
@@ -5877,28 +5877,28 @@
       </c>
       <c r="M62" s="3">
         <f>'Original coordinates'!C62*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O62" s="3">
         <f>'Original coordinates'!E62*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q62" s="1">
         <f>'Original coordinates'!G62*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S62" s="1">
         <f>'Original coordinates'!I62*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>33</v>
@@ -5964,28 +5964,28 @@
       </c>
       <c r="M63" s="3">
         <f>'Original coordinates'!C63*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O63" s="3">
         <f>'Original coordinates'!E63*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q63" s="1">
         <f>'Original coordinates'!G63*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S63" s="1">
         <f>'Original coordinates'!I63*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>33</v>
@@ -6051,28 +6051,28 @@
       </c>
       <c r="M64" s="3">
         <f>'Original coordinates'!C64*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O64" s="3">
         <f>'Original coordinates'!E64*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q64" s="1">
         <f>'Original coordinates'!G64*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S64" s="1">
         <f>'Original coordinates'!I64*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>33</v>
@@ -6138,28 +6138,28 @@
       </c>
       <c r="M65" s="3">
         <f>'Original coordinates'!C65*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O65" s="3">
         <f>'Original coordinates'!E65*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q65" s="1">
         <f>'Original coordinates'!G65*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S65" s="1">
         <f>'Original coordinates'!I65*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>33</v>
@@ -6225,28 +6225,28 @@
       </c>
       <c r="M66" s="3">
         <f>'Original coordinates'!C66*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O66" s="3">
         <f>'Original coordinates'!E66*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q66" s="1">
         <f>'Original coordinates'!G66*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S66" s="1">
         <f>'Original coordinates'!I66*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>33</v>
@@ -6312,28 +6312,28 @@
       </c>
       <c r="M67" s="3">
         <f>'Original coordinates'!C67*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O67" s="3">
         <f>'Original coordinates'!E67*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q67" s="1">
         <f>'Original coordinates'!G67*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S67" s="1">
         <f>'Original coordinates'!I67*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T67" s="3" t="s">
         <v>33</v>
@@ -6399,28 +6399,28 @@
       </c>
       <c r="M68" s="3">
         <f>'Original coordinates'!C68*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O68" s="3">
         <f>'Original coordinates'!E68*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q68" s="1">
         <f>'Original coordinates'!G68*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S68" s="1">
         <f>'Original coordinates'!I68*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>33</v>
@@ -6486,28 +6486,28 @@
       </c>
       <c r="M69" s="3">
         <f>'Original coordinates'!C69*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O69" s="3">
         <f>'Original coordinates'!E69*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q69" s="1">
         <f>'Original coordinates'!G69*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R69" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S69" s="1">
         <f>'Original coordinates'!I69*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>33</v>
@@ -6573,28 +6573,28 @@
       </c>
       <c r="M70" s="3">
         <f>'Original coordinates'!C70*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O70" s="3">
         <f>'Original coordinates'!E70*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q70" s="1">
         <f>'Original coordinates'!G70*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S70" s="1">
         <f>'Original coordinates'!I70*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>34</v>
@@ -6660,28 +6660,28 @@
       </c>
       <c r="M71" s="3">
         <f>'Original coordinates'!C71*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O71" s="3">
         <f>'Original coordinates'!E71*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q71" s="1">
         <f>'Original coordinates'!G71*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S71" s="1">
         <f>'Original coordinates'!I71*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>34</v>
@@ -6747,28 +6747,28 @@
       </c>
       <c r="M72" s="3">
         <f>'Original coordinates'!C72*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O72" s="3">
         <f>'Original coordinates'!E72*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q72" s="1">
         <f>'Original coordinates'!G72*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S72" s="1">
         <f>'Original coordinates'!I72*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>34</v>
@@ -6834,28 +6834,28 @@
       </c>
       <c r="M73" s="3">
         <f>'Original coordinates'!C73*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O73" s="3">
         <f>'Original coordinates'!E73*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q73" s="1">
         <f>'Original coordinates'!G73*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S73" s="1">
         <f>'Original coordinates'!I73*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>34</v>
@@ -6921,28 +6921,28 @@
       </c>
       <c r="M74" s="3">
         <f>'Original coordinates'!C74*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O74" s="3">
         <f>'Original coordinates'!E74*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q74" s="1">
         <f>'Original coordinates'!G74*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S74" s="1">
         <f>'Original coordinates'!I74*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>34</v>
@@ -7008,28 +7008,28 @@
       </c>
       <c r="M75" s="3">
         <f>'Original coordinates'!C75*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O75" s="3">
         <f>'Original coordinates'!E75*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q75" s="1">
         <f>'Original coordinates'!G75*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S75" s="1">
         <f>'Original coordinates'!I75*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>34</v>
@@ -7095,28 +7095,28 @@
       </c>
       <c r="M76" s="3">
         <f>'Original coordinates'!C76*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O76" s="3">
         <f>'Original coordinates'!E76*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q76" s="1">
         <f>'Original coordinates'!G76*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S76" s="1">
         <f>'Original coordinates'!I76*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>34</v>
@@ -7182,28 +7182,28 @@
       </c>
       <c r="M77" s="3">
         <f>'Original coordinates'!C77*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O77" s="3">
         <f>'Original coordinates'!E77*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q77" s="1">
         <f>'Original coordinates'!G77*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S77" s="1">
         <f>'Original coordinates'!I77*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>34</v>
@@ -7269,28 +7269,28 @@
       </c>
       <c r="M78" s="3">
         <f>'Original coordinates'!C78*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O78" s="3">
         <f>'Original coordinates'!E78*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q78" s="1">
         <f>'Original coordinates'!G78*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R78" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S78" s="1">
         <f>'Original coordinates'!I78*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T78" s="3" t="s">
         <v>33</v>
@@ -7356,28 +7356,28 @@
       </c>
       <c r="M79" s="3">
         <f>'Original coordinates'!C79*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O79" s="3">
         <f>'Original coordinates'!E79*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q79" s="1">
         <f>'Original coordinates'!G79*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S79" s="1">
         <f>'Original coordinates'!I79*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>33</v>
@@ -7443,28 +7443,28 @@
       </c>
       <c r="M80" s="3">
         <f>'Original coordinates'!C80*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O80" s="3">
         <f>'Original coordinates'!E80*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q80" s="1">
         <f>'Original coordinates'!G80*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R80" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S80" s="1">
         <f>'Original coordinates'!I80*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>33</v>
@@ -7530,28 +7530,28 @@
       </c>
       <c r="M81" s="3">
         <f>'Original coordinates'!C81*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O81" s="3">
         <f>'Original coordinates'!E81*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q81" s="1">
         <f>'Original coordinates'!G81*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S81" s="1">
         <f>'Original coordinates'!I81*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>33</v>
@@ -7617,28 +7617,28 @@
       </c>
       <c r="M82" s="3">
         <f>'Original coordinates'!C82*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O82" s="3">
         <f>'Original coordinates'!E82*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q82" s="1">
         <f>'Original coordinates'!G82*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S82" s="1">
         <f>'Original coordinates'!I82*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>34</v>
@@ -7704,28 +7704,28 @@
       </c>
       <c r="M83" s="3">
         <f>'Original coordinates'!C83*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O83" s="3">
         <f>'Original coordinates'!E83*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q83" s="1">
         <f>'Original coordinates'!G83*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S83" s="1">
         <f>'Original coordinates'!I83*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>34</v>
@@ -7791,28 +7791,28 @@
       </c>
       <c r="M84" s="3">
         <f>'Original coordinates'!C84*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O84" s="3">
         <f>'Original coordinates'!E84*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q84" s="1">
         <f>'Original coordinates'!G84*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S84" s="1">
         <f>'Original coordinates'!I84*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>34</v>
@@ -7878,28 +7878,28 @@
       </c>
       <c r="M85" s="3">
         <f>'Original coordinates'!C85*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O85" s="3">
         <f>'Original coordinates'!E85*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q85" s="1">
         <f>'Original coordinates'!G85*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S85" s="1">
         <f>'Original coordinates'!I85*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>34</v>
@@ -7965,28 +7965,28 @@
       </c>
       <c r="M86" s="3">
         <f>'Original coordinates'!C86*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O86" s="3">
         <f>'Original coordinates'!E86*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q86" s="1">
         <f>'Original coordinates'!G86*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R86" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S86" s="1">
         <f>'Original coordinates'!I86*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>33</v>
@@ -8052,28 +8052,28 @@
       </c>
       <c r="M87" s="3">
         <f>'Original coordinates'!C87*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O87" s="3">
         <f>'Original coordinates'!E87*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q87" s="1">
         <f>'Original coordinates'!G87*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S87" s="1">
         <f>'Original coordinates'!I87*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>33</v>
@@ -8139,28 +8139,28 @@
       </c>
       <c r="M88" s="3">
         <f>'Original coordinates'!C88*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O88" s="3">
         <f>'Original coordinates'!E88*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q88" s="1">
         <f>'Original coordinates'!G88*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R88" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S88" s="1">
         <f>'Original coordinates'!I88*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T88" s="3" t="s">
         <v>33</v>
@@ -8226,28 +8226,28 @@
       </c>
       <c r="M89" s="3">
         <f>'Original coordinates'!C89*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O89" s="3">
         <f>'Original coordinates'!E89*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q89" s="1">
         <f>'Original coordinates'!G89*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S89" s="1">
         <f>'Original coordinates'!I89*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>33</v>
@@ -8313,28 +8313,28 @@
       </c>
       <c r="M90" s="3">
         <f>'Original coordinates'!C90*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O90" s="3">
         <f>'Original coordinates'!E90*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q90" s="1">
         <f>'Original coordinates'!G90*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R90" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S90" s="1">
         <f>'Original coordinates'!I90*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>33</v>
@@ -8400,28 +8400,28 @@
       </c>
       <c r="M91" s="3">
         <f>'Original coordinates'!C91*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O91" s="3">
         <f>'Original coordinates'!E91*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q91" s="1">
         <f>'Original coordinates'!G91*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S91" s="1">
         <f>'Original coordinates'!I91*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>33</v>
@@ -8487,28 +8487,28 @@
       </c>
       <c r="M92" s="3">
         <f>'Original coordinates'!C92*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O92" s="3">
         <f>'Original coordinates'!E92*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q92" s="1">
         <f>'Original coordinates'!G92*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S92" s="1">
         <f>'Original coordinates'!I92*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T92" s="3" t="s">
         <v>33</v>
@@ -8574,28 +8574,28 @@
       </c>
       <c r="M93" s="3">
         <f>'Original coordinates'!C93*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O93" s="3">
         <f>'Original coordinates'!E93*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="Q93" s="1">
         <f>'Original coordinates'!G93*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>33</v>
       </c>
       <c r="S93" s="1">
         <f>'Original coordinates'!I93*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T93" s="3" t="s">
         <v>33</v>
@@ -8661,28 +8661,28 @@
       </c>
       <c r="M94" s="3">
         <f>'Original coordinates'!C94*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O94" s="3">
         <f>'Original coordinates'!E94*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q94" s="1">
         <f>'Original coordinates'!G94*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S94" s="1">
         <f>'Original coordinates'!I94*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>34</v>
@@ -8748,28 +8748,28 @@
       </c>
       <c r="M95" s="3">
         <f>'Original coordinates'!C95*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O95" s="3">
         <f>'Original coordinates'!E95*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q95" s="1">
         <f>'Original coordinates'!G95*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R95" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S95" s="1">
         <f>'Original coordinates'!I95*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>34</v>
@@ -8835,28 +8835,28 @@
       </c>
       <c r="M96" s="3">
         <f>'Original coordinates'!C96*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O96" s="3">
         <f>'Original coordinates'!E96*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q96" s="1">
         <f>'Original coordinates'!G96*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S96" s="1">
         <f>'Original coordinates'!I96*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>34</v>
@@ -8922,28 +8922,28 @@
       </c>
       <c r="M97" s="3">
         <f>'Original coordinates'!C97*'Original coordinates'!L$2</f>
-        <v>-0.29309999999999997</v>
+        <v>-0.14654999999999999</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="O97" s="3">
         <f>'Original coordinates'!E97*'Original coordinates'!L$2</f>
-        <v>-0.58619999999999994</v>
+        <v>-0.29309999999999997</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Q97" s="1">
         <f>'Original coordinates'!G97*'Original coordinates'!L$2</f>
-        <v>0.29309999999999997</v>
+        <v>0.14654999999999999</v>
       </c>
       <c r="R97" s="1" t="s">
         <v>34</v>
       </c>
       <c r="S97" s="1">
         <f>'Original coordinates'!I97*'Original coordinates'!L$2</f>
-        <v>0.58619999999999994</v>
+        <v>0.29309999999999997</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>34</v>
@@ -9078,7 +9078,7 @@
   <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9153,7 +9153,7 @@
         <v>34</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
